--- a/0咪咕音乐/咪咕音乐v3100爱唱优化二期/咪咕音乐 Jadeite_USS_music-V3.10.0版本用例(1).xlsx
+++ b/0咪咕音乐/咪咕音乐v3100爱唱优化二期/咪咕音乐 Jadeite_USS_music-V3.10.0版本用例(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="357"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="357"/>
   </bookViews>
   <sheets>
     <sheet name="音乐3.10.0" sheetId="7" r:id="rId1"/>
@@ -906,7 +906,7 @@
     <t>mgyy-067</t>
   </si>
   <si>
-    <t xml:space="preserve">wu </t>
+    <t>wu</t>
   </si>
   <si>
     <t>1.请求成功；2.按照粉丝数进行倒排</t>
@@ -2158,9 +2158,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -2246,7 +2246,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,8 +2267,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2269,21 +2283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2297,8 +2297,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2313,33 +2328,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2353,39 +2352,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2416,7 +2416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2428,13 +2434,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,13 +2476,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2470,7 +2518,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2482,13 +2554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,103 +2596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2625,6 +2625,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2644,7 +2653,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2660,6 +2669,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2698,27 +2718,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2730,10 +2730,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2742,16 +2742,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2760,115 +2760,115 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3322,8 +3322,8 @@
   <sheetPr/>
   <dimension ref="A1:AA238"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D59" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="35" customHeight="1"/>
@@ -6452,7 +6452,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="2:13">
+    <row r="98" s="1" customFormat="1" ht="45" spans="2:13">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
